--- a/activity/SIGE_P6.xlsx
+++ b/activity/SIGE_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EAD5AC-4B7A-4C01-BF21-621328DDD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25793F11-0FBC-4BA4-81BC-C144B6DEE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="P6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P6'!$B$1:$D$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P6'!$B$1:$D$126</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P6'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -175,397 +175,47 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">IGAC_2013_CurvasNivelSmooth100m
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curvas de nivel suavizadas 2D a partir de \file\gdb\SIGE.gdb\IGAC2013Cartografia\CURVAS_NIVEL.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IGAC_2013_CurvasNivelSmooth100m3D
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Conversión de curvas suavizadas a 3D a partir de IGAC_2013_CurvasNivelSmooth100m.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IGAC_2013_CurvasNivelSmooth100mTIN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Modelo de terreno triangulado TIN a partir de curvas suavizadas 3D IGAC_2013_CurvasNivelSmooth100m3D.	</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_IGAC_2013_ CurvasNivel_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadísticos zonales del límite municipal obtenido a partir del DEM IGAC_2013_CurvasNivelSmooth100mTIN.tif y el límite Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_DiviPol
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>División política catastral municipal DANE 2020 a partir de la capa de veredas VeredaDANE2020 con inclusión de límite urbano catastral.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_DiviPol_DANE_2020_ CurvasNivel_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadísticos zonales de la división política municipal obtenido a partir del DEM IGAC_2013_CurvasNivelSmooth100mTIN.tif y el límite Mpio25899_DiviPol.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Envelope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Envolvente municipal a partir de la capa Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Envelope_Buffer2500m
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Envolvente municipal con aferencia de 2500 metros a partir de Mpio25899_MOT2013_Envelope.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_ASTGTMV003_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ASTER GDEM v3 (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_SRTMGL3003_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación SRTM v3 (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_ALOSPalsarFBS_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación Alos Palsar (12.5 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_Copernicus_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal municipal de elevaciones a partir del modelo digital de elevación ESA Copernicus (30 m).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_FishNet1km
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Red de muestreo regular cada 1 km sobre límite municipal Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurvasNivel5mCopernicus
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curvas de nivel categorizadas cada 50 y 5 metros a partir del DEM Copernicus30m.tif.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CurvasNivel5mCopernicusSmooth100m
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curvas de nivel categorizadas cada 50 y 5 metros y suavizadas con radio 100 m a partir de CurvasNivel5mCopernicus.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Mapa de pendientes de terreno
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMSlope/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>3.1. Creación de mapa de pendientes clasificadas</t>
-  </si>
-  <si>
-    <t>3.2. Análisis general de pendiente municipal</t>
-  </si>
-  <si>
-    <t>3.3. Análisis de pendiente por división geopolítica municipal catastral</t>
-  </si>
-  <si>
-    <t>3.4. Análisis de pendiente por categoría de suelo e identificación de incompatibilidades</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_Copernicus_Slope_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">	Tabla de estadísticos zonales de pendiente sobre toda el área municipal Mpio25899_MOT2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_DiviPol_Copernicus_Slope_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadísticos zonales de pendiente para cada división geopolítica catastral municipal en Mpio25899_DiviPol.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-5: Red de muestreo municipal con elevaciones.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir tabla y gráfico de dispersión múltiple.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-6: Curvas de nivel Copernicus vs. curvas POT.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir análisis de diferencia y rótulos de cota. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-7: Mapa de pendientes y estadístico municipal.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir tabla de valores de estadística zonal. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-8: Mapa de reclasificación de pendientes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir rótulo de categorías ANLA.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-9: Mapa de pendientes por división geopolítica catastral municipal.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir rótulo y tabla de estadísticos zonales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-10: Mapa de pendientes por categorías del MOT con identificación de polígonos incompatibles. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir rótulo y tabla de estadísticos zonales.</t>
-    </r>
-  </si>
-  <si>
-    <t>4.1. Análisis de cubrimiento de páramos en zona de estudio</t>
-  </si>
-  <si>
-    <t>4.2. Análisis de elevación y pendiente en zona de páramo</t>
-  </si>
-  <si>
-    <t>4.3. Identificación de incompatibilidades con el MOT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Estudio de zonas de páramo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/MoorLand/Readme.md</t>
+      <t xml:space="preserve">6. Perfiles de muestreo en red hidrográfica y vías principales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMProfile/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>6.1. Perfiles a partir de líneas de muestreo y nodos</t>
+  </si>
+  <si>
+    <t>6.2. Visualización en escena 3D</t>
+  </si>
+  <si>
+    <t>7.1. Edición de red de drenaje en ArcGIS Pro</t>
+  </si>
+  <si>
+    <t>7.2. Delimitación de cuencas en HEC-HMS</t>
+  </si>
+  <si>
+    <t>7.3. Visualización de cuencas y grillas en ArcGIS Pro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Delimitación de cuencas hidrográficas locales
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/BasinLimit/Readme.md</t>
     </r>
     <r>
       <rPr>
@@ -585,342 +235,37 @@
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t>En caso de que en su zona de estudio no existan páramos, identifique por proximidad los páramos más cercanos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Paramos_Delimitados_Junio_2020.shp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Páramos de Colombia a 2020 por Minambiente.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Paramo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intersección espacial límite municipal a partir del MOT y páramos de Colombia.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOT_Paramo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Intersección espacial de polígonos de categorias del MOT y el límite de páramo en la zona de estudio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Paramo_Copernicus_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal de elevaciones Copernicus dentro del límite de páramo en la zona de estudio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MOT_Copernicus_Slope_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadísticos zonales para cada categoría de suelo definida en el MOT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_Paramo_CopernicusSlope_Stat
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de estadística zonal de pendientes a partir de Copernicus dentro del límite de páramo en la zona de estudio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. Mapa de pisos térmicos
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/ThermicLevel/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>5.1. Procedimiento general para clasificación convencional</t>
-  </si>
-  <si>
-    <t>5.2. Mapa de pisos térmicos a partir de los valores simplificados de Caldas.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Copernicus30m_ThermicLevelRegular
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Polígonos de reclasificación de pisos térmicos a partir de Copernicus30m_ThermicLevelRegular.tif.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_MOT2013_ThermicLevelRegularCopernicus
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Polígonos de reclasificación de pisos térmicos recortado hasta el límite del MOT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. Perfiles de muestreo en red hidrográfica y vías principales
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMProfile/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LineaPerfil
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Lineas para generación de perfiles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LineaPerfilPoint
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Vertices de líneas utilizadas para generación de perfiles.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-11: Mapa de páramos dentro de la zona de estudio con análisis de incompatibilidades MOT. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir tablas de resumen estadístico y rótulos descriptivos. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-12: Mapa de pisos térmicos clasificación convencional.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir rótulos internos en zona de estudio con valores de área y porcentaje. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-13: Mapa de pisos térmicos clasificación simplificada Caldas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir rótulos internos en zona de estudio con valores de área y porcentaje.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-14: Mapa de drenaje y tramo de vía con nodos y perfiles.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir gráficos de análisis y rótulos descriptivos.</t>
-    </r>
-  </si>
-  <si>
-    <t>6.1. Perfiles a partir de líneas de muestreo y nodos</t>
-  </si>
-  <si>
-    <t>6.2. Visualización en escena 3D</t>
-  </si>
-  <si>
-    <t>7.1. Edición de red de drenaje en ArcGIS Pro</t>
-  </si>
-  <si>
-    <t>7.2. Delimitación de cuencas en HEC-HMS</t>
-  </si>
-  <si>
-    <t>7.3. Visualización de cuencas y grillas en ArcGIS Pro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mpio25899_Drenaje
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Red de drenaje ajustada para restitución hidrológica a partir de drenajes formulación POT.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RioFrioCuencas.shp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Subcuencas Río Frío generadas en HEC-HMS.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RioFrioCuenca.shp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cuenca Río Frío disuelta a partir de subcuencas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RioFrioDrenajes.shp
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Drenaje por subcuenca en Río Frío.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. Delimitación de cuencas hidrográficas locales
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/BasinLimit/Readme.md</t>
+      <t>Siguiendo el procedimiento presentado en esta actividad, realizar la delimitación de subcuencas en 3 puntos de estudio o sifones para 3 cuencas hidrográficas dentro de su zona de estudio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8. Estudio geográfico de embalses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Reservoir/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>8.1. Procedimiento general en ArcGIS Pro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Módulo VI – Sensores remotos y procesamiento digital de imágenes
+</t>
     </r>
     <r>
       <rPr>
@@ -930,137 +275,31 @@
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siguiendo el procedimiento presentado en esta actividad, realizar la delimitación de subcuencas en 3 puntos de estudio o sifones para 3 cuencas hidrográficas dentro de su zona de estudio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-15: Cuencas, subcuencas, drenajes y puntos de control.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Incluir rótulos descriptivos con áreas y nombres de cuencas y drenajes. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. Estudio geográfico de embalses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Reservoir/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>8.1. Procedimiento general en ArcGIS Pro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmbalsePunto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Punto de localización de embalse.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmbalseCurvaNivelCierre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Curva de nivel perimetral de cierre de embalse.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmbalseSuperficie
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Polígono de superficie embalsada a partir de curva de cierre.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EmbalseStorageCapacity
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tabla de resultados de análisis de almacenamiento y área superficial.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P5-16: Mapa de embalse y curvas de elevación almacenamiento y elevación área.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir gráficos de resultados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Módulo VI – Sensores remotos y procesamiento digital de imágenes
-</t>
+      <t>Calificación Avance P6 - Proyecto final</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1. Descarga de imágenes desde earthexplorer.usgs.gov</t>
+  </si>
+  <si>
+    <t>1.2. Composición de imágenes en falso color</t>
+  </si>
+  <si>
+    <t>1.3. Identificación cuerpos de agua y vegetación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Descarga de imágenes satelitales y composición de bandas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/RemoteSensingDL/Readme.md</t>
     </r>
     <r>
       <rPr>
@@ -1070,40 +309,6 @@
         <rFont val="Segoe UI Light"/>
         <family val="2"/>
       </rPr>
-      <t>Calificación Avance P6 - Proyecto final</t>
-    </r>
-  </si>
-  <si>
-    <t>1.1. Descarga de imágenes desde earthexplorer.usgs.gov</t>
-  </si>
-  <si>
-    <t>1.2. Composición de imágenes en falso color</t>
-  </si>
-  <si>
-    <t>1.3. Identificación cuerpos de agua y vegetación</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Descarga de imágenes satelitales y composición de bandas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/RemoteSensingDL/Readme.md</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -1281,9 +486,6 @@
     </r>
   </si>
   <si>
-    <t>2.1. Procedimiento general en ArcGIS Pro para dos instantes de tiempo</t>
-  </si>
-  <si>
     <t>2.2. Análisis descriptivo de diferencias encontradas en los cuerpos de agua identificados</t>
   </si>
   <si>
@@ -1344,7 +546,132 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">P6-3: Mapa de comparación de clasificación no supervisada 2003 vs. 2023 con tabla de resultados. </t>
+      <t xml:space="preserve">3. Binarización por algebra de mapas para identificación de cuerpos de agua
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/RemoteSensingBinary/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1. Procedimiento general para dos instantes de tiempo</t>
+  </si>
+  <si>
+    <t>3.1. Procedimiento general para dos instantes de tiempo</t>
+  </si>
+  <si>
+    <t>3.2. Análisis descriptivo de diferencias encontradas en los cuerpos de agua identificados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L7B4B3B2NS24ClipBin.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Imagen binarizada de clasificación supervisada para identificación de cuerpos de agua 2003 usando Landsat 7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L9B5B4B3NS24ClipBin.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Imagen binarizada de clasificación supervisada para identificación de cuerpos de agua 2023 usando Landsat 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_CuerpoAguaLandsat7_2003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de cuerpos de agua 2003 usando Landsat 7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_CuerpoAguaLandsat9_2023
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de cuerpos de agua 2023 usando Landsat 9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_CuerpoAguaLandsat7_2003_Smooth120m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de cuerpos de agua 2003 suavizados usando Landsat 7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mpio25899_CuerpoAguaLandsat7_2023_Smooth120m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos de cuerpos de agua 2023 suavizados usando Landsat 9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-04: Mapa de comparación de polígonos de cuerpos de agua 2003 vs. 2023 con áreas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir texto descriptivo de diferencias encontradas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-03: Mapa de comparación de clasificación no supervisada 2003 vs. 2023 con tabla de resultados. </t>
     </r>
     <r>
       <rPr>
@@ -1357,16 +684,618 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">P5-4: Comparación de modelos digitales POT, ASTER GDEM, SRTM, ALOS PALSAR y Copernicus. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Incluir estadísticos zonales municipales.</t>
+      <t xml:space="preserve">4. Índices de vegetación: NDVI, SAVI, MSAVI, TSAVI y otros índices
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/RemoteSensingNDVI/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>4.1. Cálculo manual del índice NDVI</t>
+  </si>
+  <si>
+    <t>4.2. Cálculo automático del índice NDVI</t>
+  </si>
+  <si>
+    <t>4.3. Cálculo de otros índices</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.4. Composiciones para identificar y delimitar áreas urbanas: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>utilizando los conceptos aprendidos en este módulo, realice una composición de bandas que permita obtener o marcar las celdas correspondientes a las zonas urbanas. Cree mapas binarizados, convierta a polígonos, realice suavizado perimetral y compare el tamaño del área urbana entre dos instantes de tiempo. Este análisis puede ser realizado a través del cálculo de índices.</t>
+    </r>
+  </si>
+  <si>
+    <t>4.5. Utilizando sus propias palabras, explique la utilidad de los indices investigados en los diferentes campos de la ingeniería o la arquitectura y su uso y aplicabilidad en estudios de ordenamiento territorial.</t>
+  </si>
+  <si>
+    <t>4.6. Compare los mapas de vegetación obtenidos con el mapa de usos potenciales del suelo del IGAC evaluado en el módulo 4, explique si existe alguna correspondencia en sus límites internos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-05: Mapa de comparación NDVI 2003 vs. 2023 con cuadro de áreas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-06: Mapa de comparación Índice 1 entre 2003 vs. 2023 con cuadro de áreas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-07: Mapa de comparación Índice 2 entre 2003 vs. 2023 con cuadro de áreas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-08: Mapa de comparación Índice 3 entre 2003 vs. 2023 con cuadro de áreas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-09: Mapa de comparación Índice 4 entre 2003 vs. 2023 con cuadro de áreas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-10: Mapa de comparación áreas urbanas entre 2003 vs. 2023 con cuadro de áreas. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir análisis cuantitativo y cualitativo de los valores obtenidos con tabla de comparaciones 2003 vs. 2023.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L720030111NDVI.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 7 2003 generado con algebra de mapas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L920230219NDVI.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 9 2013 generado con algebra de mapas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L720030111NDVIClip.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 7 2003 recortado hasta límite municipal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L720030111NDVIClipReclass.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 7 2003 recortado hasta límite municipal con reclasificación en 4 clases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L920230219NDVIClipReclass.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 9 2023 recortado hasta límite municipal con reclasificación en 4 clases.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LE07_L2SP_Composite.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Composición de 7 bandas a partir de Landsat 7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NDVI_LE07_L2SP_Composite.tif
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa NDVI Landsat 7 2003 generado con herramienta de Indices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Análisis hidro-climatológico ERA5 Land Monthly
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/RemoteSensingERA5/Readme.md</t>
+    </r>
+  </si>
+  <si>
+    <t>5.1. Obtención de límites geográficos</t>
+  </si>
+  <si>
+    <t>5.2. Descarga de datos climatológicos ERA5 Land (10km)</t>
+  </si>
+  <si>
+    <t>5.3. Visualización y análisis general</t>
+  </si>
+  <si>
+    <t>5.4. Gráficos de agregación estadística</t>
+  </si>
+  <si>
+    <t>5.5. Identificación de valores atípicos</t>
+  </si>
+  <si>
+    <t>5.6. Balance hidrológico</t>
+  </si>
+  <si>
+    <t>5.7. Mapas de isolineas</t>
+  </si>
+  <si>
+    <t>5.8. A partir de los gráficos obtenidos, analice y determine si existen tendencias de crecimiento o decrecimiento en estos datos y si están asociados a fenómenos de cambio climático.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_v10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Componente norte del viento a 10 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_u10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Componente este del viento a 10 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_tp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precipitación total en metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_t2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperatura atmosférica a 2 metros en grados Kelvin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_t2m_celsius.nc_t2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperatura atmosférica a 2 metros en grados Centígrados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_ssr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Radiación solar de onda corta en Julio m-2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_sp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Presión atmosférica en Pascales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_ro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Escorrentía directa en metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_e
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Evaporación total en metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_climatological_var_010ddRioBogota.nc_d2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperatura de punto de rocío del aire a 2 metros en grados Kelvin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_monthly_d2m_celsius.nc_d2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Temperatura de punto de rocío del aire a 2 metros en grados Centígrados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_d2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Temperatura de punto de rocío del aire a 2 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_t2m
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Temperatura atmosférica a 2 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_e
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Evaporación total.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_ro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Escorrentía directa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_u10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Componente este del viento a 10 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_v10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Componente norte del viento a 10 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_ssr
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Radiación solar de onda corta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_tp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Precipitación total.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_sp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá para Presión atmosférica.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_t2m_Statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estadísticos cuenca Río Bogotá decadal para Temperatura atmosférica a 2 metros.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SZH2120_ERA5_BalanceHid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Balance hidrológico cuenca Río Bogotá.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ERA5_land_tp_isolines
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Isoyetas multianuales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P6-11: Mapa múltiple de variables climatológicas e isolíneas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incluir gráficas y tablas de análisis.</t>
     </r>
   </si>
 </sst>
@@ -1374,7 +1303,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,12 +1365,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Segoe UI Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFC00000"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
@@ -1619,7 +1542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1728,9 +1651,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
@@ -2019,13 +1939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F121"/>
+  <dimension ref="B1:F126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2053,7 +1973,7 @@
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="32" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -2063,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C121)</f>
-        <v>53.700000000000067</v>
+        <f>SUM(C6:C126)</f>
+        <v>57.40000000000007</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D121)</f>
-        <v>53.700000000000067</v>
+        <f>SUM(D6:D126)</f>
+        <v>55.90000000000007</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E121)," de ",$D$4, " puntos")</f>
-        <v>0 de 53.7000000000001 puntos</v>
+        <f>_xlfn.CONCAT(SUM(E6:E126)," de ",$D$4, " puntos")</f>
+        <v>0 de 55.9000000000001 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
@@ -2117,7 +2037,7 @@
     </row>
     <row r="8" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
       <c r="B8" s="30" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10"/>
@@ -2126,7 +2046,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="12" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -2139,7 +2059,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="12" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -2152,7 +2072,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -2165,7 +2085,7 @@
     </row>
     <row r="12" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B12" s="30" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10"/>
@@ -2174,7 +2094,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="12" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4">
         <v>0.5</v>
@@ -2187,7 +2107,7 @@
     </row>
     <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -2200,7 +2120,7 @@
     </row>
     <row r="15" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B15" s="30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10"/>
@@ -2209,7 +2129,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="12" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -2220,9 +2140,9 @@
       <c r="E16" s="21"/>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B17" s="12" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -2233,22 +2153,18 @@
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
+    <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -2257,20 +2173,24 @@
         <v>1</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
-      <c r="B20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -2279,11 +2199,11 @@
         <v>1</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="2:6" ht="67.5" x14ac:dyDescent="0.45">
       <c r="B22" s="12" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -2294,12 +2214,12 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B23" s="12" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C23" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -2307,31 +2227,31 @@
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B24" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23"/>
+    <row r="25" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="12" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -2339,21 +2259,25 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B27" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="10"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2361,15 +2285,15 @@
       <c r="D28" s="10">
         <v>1</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -2377,18 +2301,22 @@
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B30" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="12" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -2396,25 +2324,25 @@
       <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="12" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="B33" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -2427,7 +2355,7 @@
     </row>
     <row r="34" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B34" s="30" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="10"/>
@@ -2436,7 +2364,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="12" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -2448,8 +2376,8 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>14</v>
+      <c r="B36" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -2457,25 +2385,21 @@
       <c r="D36" s="10">
         <v>1</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
+      <c r="B37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="11" t="s">
-        <v>1</v>
+      <c r="B38" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -2487,152 +2411,148 @@
       <c r="F38" s="23"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="11" t="s">
-        <v>21</v>
+      <c r="B39" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
     </row>
     <row r="41" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="23"/>
+      <c r="B41" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="25"/>
+      <c r="B42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="24"/>
       <c r="F42" s="23"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B44" s="13" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C44" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D44" s="10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B45" s="13" t="s">
-        <v>30</v>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="C45" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D45" s="10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B46" s="13" t="s">
-        <v>33</v>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C46" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D46" s="10">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="23"/>
+    <row r="47" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B48" s="13" t="s">
-        <v>36</v>
+      <c r="B48" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C48" s="4">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="25"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B49" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E49" s="24"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B50" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="23"/>
-    </row>
-    <row r="51" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B51" s="13" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4">
         <v>0.1</v>
@@ -2645,7 +2565,7 @@
     </row>
     <row r="52" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B52" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C52" s="4">
         <v>0.1</v>
@@ -2658,7 +2578,7 @@
     </row>
     <row r="53" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B53" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C53" s="4">
         <v>0.1</v>
@@ -2671,7 +2591,7 @@
     </row>
     <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B54" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C54" s="4">
         <v>0.1</v>
@@ -2683,8 +2603,8 @@
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B55" s="13" t="s">
-        <v>70</v>
+      <c r="B55" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="C55" s="4">
         <v>0.1</v>
@@ -2695,35 +2615,25 @@
       <c r="E55" s="24"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B56" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0.1</v>
-      </c>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="13"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="24"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B57" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="23"/>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B58" s="13" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C58" s="4">
         <v>0.1</v>
@@ -2736,7 +2646,7 @@
     </row>
     <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B59" s="13" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C59" s="4">
         <v>0.1</v>
@@ -2749,7 +2659,7 @@
     </row>
     <row r="60" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B60" s="13" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C60" s="4">
         <v>0.1</v>
@@ -2762,7 +2672,7 @@
     </row>
     <row r="61" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B61" s="13" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C61" s="4">
         <v>0.1</v>
@@ -2775,7 +2685,7 @@
     </row>
     <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C62" s="4">
         <v>0.1</v>
@@ -2788,7 +2698,7 @@
     </row>
     <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B63" s="13" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C63" s="4">
         <v>0.1</v>
@@ -2801,7 +2711,7 @@
     </row>
     <row r="64" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B64" s="13" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C64" s="4">
         <v>0.1</v>
@@ -2814,7 +2724,7 @@
     </row>
     <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B65" s="13" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C65" s="4">
         <v>0.1</v>
@@ -2825,25 +2735,35 @@
       <c r="E65" s="24"/>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="13"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="10"/>
+    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B66" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E66" s="24"/>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B67" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23"/>
+    </row>
+    <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B68" s="13" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C68" s="4">
         <v>0.1</v>
@@ -2854,35 +2774,25 @@
       <c r="E68" s="24"/>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B69" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0.1</v>
-      </c>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="13"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="24"/>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B70" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B71" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
@@ -2893,9 +2803,9 @@
       <c r="E71" s="24"/>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B72" s="13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="4">
         <v>0.1</v>
@@ -2906,9 +2816,9 @@
       <c r="E72" s="24"/>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B73" s="13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73" s="4">
         <v>0.1</v>
@@ -2921,7 +2831,7 @@
     </row>
     <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B74" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
@@ -2932,9 +2842,9 @@
       <c r="E74" s="24"/>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B75" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
@@ -2947,7 +2857,7 @@
     </row>
     <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B76" s="13" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
@@ -2960,7 +2870,7 @@
     </row>
     <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B77" s="13" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C77" s="4">
         <v>0.1</v>
@@ -2971,9 +2881,9 @@
       <c r="E77" s="24"/>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" spans="2:6" ht="42" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B78" s="13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C78" s="4">
         <v>0.1</v>
@@ -2985,8 +2895,8 @@
       <c r="F78" s="23"/>
     </row>
     <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B79" s="13" t="s">
-        <v>95</v>
+      <c r="B79" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="C79" s="4">
         <v>0.1</v>
@@ -2997,25 +2907,35 @@
       <c r="E79" s="24"/>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="13"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="10"/>
+    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B80" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E80" s="24"/>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B81" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
+    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B81" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B82" s="13" t="s">
-        <v>102</v>
+      <c r="B82" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="C82" s="4">
         <v>0.1</v>
@@ -3027,8 +2947,8 @@
       <c r="F82" s="23"/>
     </row>
     <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B83" s="13" t="s">
-        <v>103</v>
+      <c r="B83" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="C83" s="4">
         <v>0.1</v>
@@ -3040,8 +2960,8 @@
       <c r="F83" s="23"/>
     </row>
     <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B84" s="13" t="s">
-        <v>104</v>
+      <c r="B84" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="C84" s="4">
         <v>0.1</v>
@@ -3053,8 +2973,8 @@
       <c r="F84" s="23"/>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B85" s="13" t="s">
-        <v>105</v>
+      <c r="B85" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="C85" s="4">
         <v>0.1</v>
@@ -3066,8 +2986,8 @@
       <c r="F85" s="23"/>
     </row>
     <row r="86" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B86" s="13" t="s">
-        <v>106</v>
+      <c r="B86" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="C86" s="4">
         <v>0.1</v>
@@ -3079,8 +2999,8 @@
       <c r="F86" s="23"/>
     </row>
     <row r="87" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B87" s="13" t="s">
-        <v>107</v>
+      <c r="B87" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="C87" s="4">
         <v>0.1</v>
@@ -3092,8 +3012,8 @@
       <c r="F87" s="23"/>
     </row>
     <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B88" s="13" t="s">
-        <v>108</v>
+      <c r="B88" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="C88" s="4">
         <v>0.1</v>
@@ -3105,8 +3025,8 @@
       <c r="F88" s="23"/>
     </row>
     <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B89" s="13" t="s">
-        <v>109</v>
+      <c r="B89" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C89" s="4">
         <v>0.1</v>
@@ -3118,8 +3038,8 @@
       <c r="F89" s="23"/>
     </row>
     <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B90" s="38" t="s">
-        <v>115</v>
+      <c r="B90" s="37" t="s">
+        <v>88</v>
       </c>
       <c r="C90" s="4">
         <v>0.1</v>
@@ -3131,8 +3051,8 @@
       <c r="F90" s="23"/>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="38" t="s">
-        <v>116</v>
+      <c r="B91" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="C91" s="4">
         <v>0.1</v>
@@ -3144,8 +3064,8 @@
       <c r="F91" s="23"/>
     </row>
     <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="38" t="s">
-        <v>117</v>
+      <c r="B92" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="C92" s="4">
         <v>0.1</v>
@@ -3157,8 +3077,8 @@
       <c r="F92" s="23"/>
     </row>
     <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B93" s="38" t="s">
-        <v>118</v>
+      <c r="B93" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="C93" s="4">
         <v>0.1</v>
@@ -3169,25 +3089,35 @@
       <c r="E93" s="24"/>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B94" s="13"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="10"/>
+    <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B94" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="10">
+        <v>0.1</v>
+      </c>
       <c r="E94" s="24"/>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B95" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22"/>
+    <row r="95" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B95" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="23"/>
     </row>
     <row r="96" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B96" s="13" t="s">
-        <v>31</v>
+      <c r="B96" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="C96" s="4">
         <v>0.1</v>
@@ -3198,157 +3128,141 @@
       <c r="E96" s="24"/>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B97" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="22"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B98" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="22"/>
-    </row>
-    <row r="99" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B99" s="12" t="s">
-        <v>110</v>
+    <row r="97" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B97" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B98" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="23"/>
+    </row>
+    <row r="99" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B99" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="C99" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D99" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B100" s="12" t="s">
-        <v>111</v>
+    <row r="100" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B100" s="37" t="s">
+        <v>107</v>
       </c>
       <c r="C100" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D100" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B101" s="39" t="s">
-        <v>119</v>
+    <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B101" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="C101" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D101" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B102" s="37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C102" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D102" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="23"/>
     </row>
     <row r="103" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B103" s="12" t="s">
-        <v>51</v>
+      <c r="B103" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="C103" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D103" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B104" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="4">
-        <v>1</v>
-      </c>
-      <c r="D104" s="10">
-        <v>1</v>
-      </c>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B104" s="13"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="24"/>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B105" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C105" s="4">
-        <v>1</v>
-      </c>
-      <c r="D105" s="10">
-        <v>1</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="23"/>
-    </row>
-    <row r="106" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B106" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="4">
-        <v>1</v>
-      </c>
-      <c r="D106" s="10">
-        <v>1</v>
-      </c>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B105" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B106" s="13"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="24"/>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B107" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="4">
-        <v>1</v>
-      </c>
-      <c r="D107" s="10">
-        <v>1</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="23"/>
-    </row>
-    <row r="108" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B108" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="4">
-        <v>1</v>
-      </c>
-      <c r="D108" s="10">
-        <v>1</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="23"/>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B107" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B108" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B109" s="12" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
@@ -3359,9 +3273,9 @@
       <c r="E109" s="24"/>
       <c r="F109" s="23"/>
     </row>
-    <row r="110" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B110" s="12" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
@@ -3372,9 +3286,9 @@
       <c r="E110" s="24"/>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B111" s="12" t="s">
-        <v>77</v>
+    <row r="111" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B111" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -3385,9 +3299,9 @@
       <c r="E111" s="24"/>
       <c r="F111" s="23"/>
     </row>
-    <row r="112" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B112" s="12" t="s">
-        <v>78</v>
+    <row r="112" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B112" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -3399,8 +3313,8 @@
       <c r="F112" s="23"/>
     </row>
     <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B113" s="12" t="s">
-        <v>89</v>
+      <c r="B113" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
@@ -3413,7 +3327,7 @@
     </row>
     <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
       <c r="B114" s="12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -3424,9 +3338,9 @@
       <c r="E114" s="24"/>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B115" s="11" t="s">
-        <v>15</v>
+    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B115" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
@@ -3437,9 +3351,9 @@
       <c r="E115" s="24"/>
       <c r="F115" s="23"/>
     </row>
-    <row r="116" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B116" s="11" t="s">
-        <v>7</v>
+    <row r="116" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B116" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -3447,21 +3361,25 @@
       <c r="D116" s="10">
         <v>1</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="22"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B117" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="21"/>
-      <c r="F117" s="22"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B118" s="11" t="s">
-        <v>9</v>
+      <c r="E116" s="24"/>
+      <c r="F116" s="23"/>
+    </row>
+    <row r="117" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1</v>
+      </c>
+      <c r="D117" s="10">
+        <v>1</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+    </row>
+    <row r="118" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+      <c r="B118" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
@@ -3469,12 +3387,12 @@
       <c r="D118" s="10">
         <v>1</v>
       </c>
-      <c r="E118" s="25"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B119" s="11" t="s">
-        <v>8</v>
+    <row r="119" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B119" s="38" t="s">
+        <v>123</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -3482,12 +3400,12 @@
       <c r="D119" s="10">
         <v>1</v>
       </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="28"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B120" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C120" s="4">
         <v>1</v>
@@ -3498,12 +3416,73 @@
       <c r="E120" s="24"/>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B121" s="14"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="27"/>
+    <row r="121" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B121" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1</v>
+      </c>
+      <c r="D121" s="10">
+        <v>1</v>
+      </c>
+      <c r="E121" s="21"/>
+      <c r="F121" s="22"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B122" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="22"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1</v>
+      </c>
+      <c r="D123" s="10">
+        <v>1</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="23"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B124" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1</v>
+      </c>
+      <c r="D124" s="10">
+        <v>1</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="28"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B125" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1</v>
+      </c>
+      <c r="D125" s="10">
+        <v>1</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="23"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/activity/SIGE_P6.xlsx
+++ b/activity/SIGE_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25793F11-0FBC-4BA4-81BC-C144B6DEE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A86982-A7AF-4848-888D-6CDB8A91E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="P6" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'P6'!$B$1:$D$126</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'P6'!$B$1:$D$117</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'P6'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Componente / Actividad</t>
   </si>
@@ -172,89 +172,6 @@
   </si>
   <si>
     <t>Ráster</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. Perfiles de muestreo en red hidrográfica y vías principales
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/DEMProfile/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>6.1. Perfiles a partir de líneas de muestreo y nodos</t>
-  </si>
-  <si>
-    <t>6.2. Visualización en escena 3D</t>
-  </si>
-  <si>
-    <t>7.1. Edición de red de drenaje en ArcGIS Pro</t>
-  </si>
-  <si>
-    <t>7.2. Delimitación de cuencas en HEC-HMS</t>
-  </si>
-  <si>
-    <t>7.3. Visualización de cuencas y grillas en ArcGIS Pro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. Delimitación de cuencas hidrográficas locales
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/BasinLimit/Readme.md</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Siguiendo el procedimiento presentado en esta actividad, realizar la delimitación de subcuencas en 3 puntos de estudio o sifones para 3 cuencas hidrográficas dentro de su zona de estudio.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">8. Estudio geográfico de embalses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://github.com/rcfdtools/R.SIGE/blob/main/activity/Reservoir/Readme.md</t>
-    </r>
-  </si>
-  <si>
-    <t>8.1. Procedimiento general en ArcGIS Pro</t>
   </si>
   <si>
     <r>
@@ -1542,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1571,9 +1488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1589,9 +1503,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1633,9 +1544,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1939,13 +1847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F126"/>
+  <dimension ref="B1:F117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1960,56 +1868,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>SUM(C6:C126)</f>
-        <v>57.40000000000007</v>
+        <f>SUM(C6:C117)</f>
+        <v>53.90000000000007</v>
       </c>
       <c r="D4" s="7">
-        <f>SUM(D6:D126)</f>
-        <v>55.90000000000007</v>
-      </c>
-      <c r="E4" s="17" t="s">
+        <f>SUM(D6:D117)</f>
+        <v>53.90000000000007</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="str">
-        <f>_xlfn.CONCAT(SUM(E6:E126)," de ",$D$4, " puntos")</f>
-        <v>0 de 55.9000000000001 puntos</v>
+      <c r="F4" s="16" t="str">
+        <f>_xlfn.CONCAT(SUM(E6:E117)," de ",$D$4, " puntos")</f>
+        <v>0 de 53.9000000000001 puntos</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2018,1471 +1926,1366 @@
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="2:6" ht="42" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="30" t="s">
-        <v>42</v>
+      <c r="B8" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="12" t="s">
-        <v>39</v>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
-        <v>41</v>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B15" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B18" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B18" s="30" t="s">
-        <v>71</v>
-      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="12" t="s">
-        <v>72</v>
+      <c r="B19" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
-        <v>73</v>
+      <c r="B20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="12" t="s">
-        <v>74</v>
+      <c r="B21" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6" ht="67.5" x14ac:dyDescent="0.45">
-      <c r="B22" s="12" t="s">
-        <v>75</v>
+      <c r="B22" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B23" s="12" t="s">
-        <v>76</v>
+      <c r="B23" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C23" s="4">
         <v>0.5</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="2:6" ht="93" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B43" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B46" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="12"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B50" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B52" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B53" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B54" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B56" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B57" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B58" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B59" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="12"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B62" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B63" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B64" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B66" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B67" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B68" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B70" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B71" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B72" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B73" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B74" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B75" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B76" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B77" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B78" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B25" s="30" t="s">
+      <c r="C78" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B79" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B80" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B81" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B82" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B83" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B84" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
+      <c r="C84" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B85" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B27" s="12" t="s">
+      <c r="C85" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B86" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="12" t="s">
+      <c r="C86" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B87" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B29" s="12" t="s">
+      <c r="C87" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B88" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="4">
-        <v>2</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" s="12" t="s">
+      <c r="C88" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B89" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="12" t="s">
+      <c r="C89" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B90" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="12" t="s">
+      <c r="C90" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B91" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="2:6" ht="49.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
+      <c r="C91" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B92" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B34" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="2:6" ht="58.5" x14ac:dyDescent="0.45">
-      <c r="B37" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B41" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B42" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="23"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="2:6" ht="93" x14ac:dyDescent="0.45">
-      <c r="B47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B48" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B50" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B51" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="23"/>
-    </row>
-    <row r="52" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B52" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="23"/>
-    </row>
-    <row r="53" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B53" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="23"/>
-    </row>
-    <row r="54" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="23"/>
-    </row>
-    <row r="55" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B55" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="13"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B58" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B59" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="23"/>
-    </row>
-    <row r="60" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B60" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B61" s="13" t="s">
+      <c r="C92" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B93" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="22"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B94" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B95" s="12"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B96" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B97" s="12"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B98" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
+    </row>
+    <row r="100" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B100" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="22"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B101" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B102" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="22"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.45">
+      <c r="B103" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B104" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="22"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B105" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="22"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B106" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="22"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B107" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B108" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
+      <c r="B109" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="22"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="B110" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B62" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
-    </row>
-    <row r="63" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B63" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
-    </row>
-    <row r="64" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B64" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B65" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D65" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23"/>
-    </row>
-    <row r="66" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B66" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
-    </row>
-    <row r="67" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B67" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D67" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
-    </row>
-    <row r="68" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B68" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D68" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="13"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B71" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
-    </row>
-    <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B72" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="23"/>
-    </row>
-    <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B73" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B74" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B75" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B76" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="23"/>
-    </row>
-    <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B77" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="23"/>
-    </row>
-    <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B78" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="23"/>
-    </row>
-    <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B79" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="23"/>
-    </row>
-    <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B80" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B81" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="23"/>
-    </row>
-    <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B82" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B83" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D83" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="23"/>
-    </row>
-    <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B84" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D84" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23"/>
-    </row>
-    <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B85" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D85" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
-    </row>
-    <row r="86" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B86" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D86" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="23"/>
-    </row>
-    <row r="87" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B87" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D87" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
-    </row>
-    <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B88" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D88" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="23"/>
-    </row>
-    <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B89" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D89" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="23"/>
-    </row>
-    <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B90" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="23"/>
-    </row>
-    <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D91" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="23"/>
-    </row>
-    <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D92" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="23"/>
-    </row>
-    <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B93" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D93" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="23"/>
-    </row>
-    <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B94" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D94" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="23"/>
-    </row>
-    <row r="95" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B95" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D95" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="23"/>
-    </row>
-    <row r="96" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B96" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D96" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="23"/>
-    </row>
-    <row r="97" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B97" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D97" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
-    </row>
-    <row r="98" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B98" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D98" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="23"/>
-    </row>
-    <row r="99" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B99" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D99" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="23"/>
-    </row>
-    <row r="100" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B100" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D100" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="23"/>
-    </row>
-    <row r="101" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B101" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D101" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="23"/>
-    </row>
-    <row r="102" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B102" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D102" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="23"/>
-    </row>
-    <row r="103" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B103" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D103" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="23"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B104" s="13"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="23"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B105" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B106" s="13"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="23"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B107" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="22"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B108" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="22"/>
-    </row>
-    <row r="109" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B109" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="4">
-        <v>1</v>
-      </c>
-      <c r="D109" s="10">
-        <v>1</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="23"/>
-    </row>
-    <row r="110" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B110" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="C110" s="4">
         <v>1</v>
       </c>
-      <c r="D110" s="10">
-        <v>1</v>
-      </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
-    </row>
-    <row r="111" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B111" s="38" t="s">
-        <v>70</v>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="22"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B111" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
-      <c r="D111" s="10">
-        <v>1</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="23"/>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="22"/>
+      <c r="F111" s="21"/>
     </row>
     <row r="112" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B112" s="38" t="s">
-        <v>69</v>
+      <c r="B112" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
-      <c r="D112" s="10">
-        <v>1</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="23"/>
-    </row>
-    <row r="113" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B113" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1</v>
-      </c>
-      <c r="D113" s="10">
-        <v>1</v>
-      </c>
-      <c r="E113" s="24"/>
-      <c r="F113" s="23"/>
-    </row>
-    <row r="114" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B114" s="12" t="s">
-        <v>79</v>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B114" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
       </c>
-      <c r="D114" s="10">
-        <v>1</v>
-      </c>
-      <c r="E114" s="24"/>
-      <c r="F114" s="23"/>
-    </row>
-    <row r="115" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B115" s="12" t="s">
-        <v>80</v>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="23"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B115" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
       </c>
-      <c r="D115" s="10">
-        <v>1</v>
-      </c>
-      <c r="E115" s="24"/>
-      <c r="F115" s="23"/>
-    </row>
-    <row r="116" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B116" s="12" t="s">
-        <v>81</v>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="23"/>
+      <c r="F115" s="26"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B116" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
-      <c r="D116" s="10">
-        <v>1</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23"/>
-    </row>
-    <row r="117" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B117" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="4">
-        <v>1</v>
-      </c>
-      <c r="D117" s="10">
-        <v>1</v>
-      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="22"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="24"/>
-      <c r="F117" s="23"/>
-    </row>
-    <row r="118" spans="2:6" ht="45.75" x14ac:dyDescent="0.45">
-      <c r="B118" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C118" s="4">
-        <v>1</v>
-      </c>
-      <c r="D118" s="10">
-        <v>1</v>
-      </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
-    </row>
-    <row r="119" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B119" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="4">
-        <v>1</v>
-      </c>
-      <c r="D119" s="10">
-        <v>1</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="23"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B120" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C120" s="4">
-        <v>1</v>
-      </c>
-      <c r="D120" s="10">
-        <v>1</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="23"/>
-    </row>
-    <row r="121" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B121" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="4">
-        <v>1</v>
-      </c>
-      <c r="D121" s="10">
-        <v>1</v>
-      </c>
-      <c r="E121" s="21"/>
-      <c r="F121" s="22"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B122" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B123" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="4">
-        <v>1</v>
-      </c>
-      <c r="D123" s="10">
-        <v>1</v>
-      </c>
-      <c r="E123" s="25"/>
-      <c r="F123" s="23"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B124" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="4">
-        <v>1</v>
-      </c>
-      <c r="D124" s="10">
-        <v>1</v>
-      </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="28"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B125" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="4">
-        <v>1</v>
-      </c>
-      <c r="D125" s="10">
-        <v>1</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="23"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B126" s="14"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="F117" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/activity/SIGE_P6.xlsx
+++ b/activity/SIGE_P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A86982-A7AF-4848-888D-6CDB8A91E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB568A5D-2ED8-4C34-A660-3204D8F6183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1459,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1551,6 +1551,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1560,11 +1566,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1850,10 +1859,10 @@
   <dimension ref="B1:F117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:D117"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1873,11 +1882,11 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B3" s="29" t="s">
@@ -1887,7 +1896,7 @@
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
@@ -1907,7 +1916,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
     </row>
@@ -1937,7 +1946,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="37">
         <v>3</v>
       </c>
       <c r="E7" s="22"/>
@@ -1948,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
     </row>
@@ -1959,7 +1968,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
       <c r="E9" s="22"/>
@@ -1972,7 +1981,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
       <c r="E10" s="23"/>
@@ -1985,7 +1994,7 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
       <c r="E11" s="19"/>
@@ -1996,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="19"/>
       <c r="F12" s="20"/>
     </row>
@@ -2007,7 +2016,7 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="37">
         <v>2</v>
       </c>
       <c r="E13" s="19"/>
@@ -2020,7 +2029,7 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="37">
         <v>1</v>
       </c>
       <c r="E14" s="22"/>
@@ -2031,7 +2040,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="19"/>
       <c r="F15" s="20"/>
     </row>
@@ -2042,7 +2051,7 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="37">
         <v>2</v>
       </c>
       <c r="E16" s="19"/>
@@ -2055,7 +2064,7 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="37">
         <v>1</v>
       </c>
       <c r="E17" s="19"/>
@@ -2066,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="19"/>
       <c r="F18" s="20"/>
     </row>
@@ -2077,7 +2086,7 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="37">
         <v>1</v>
       </c>
       <c r="E19" s="19"/>
@@ -2090,7 +2099,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="37">
         <v>1</v>
       </c>
       <c r="E20" s="19"/>
@@ -2103,7 +2112,7 @@
       <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="37">
         <v>4</v>
       </c>
       <c r="E21" s="19"/>
@@ -2116,7 +2125,7 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="37">
         <v>1</v>
       </c>
       <c r="E22" s="19"/>
@@ -2129,7 +2138,7 @@
       <c r="C23" s="4">
         <v>0.5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="37">
         <v>0.5</v>
       </c>
       <c r="E23" s="19"/>
@@ -2142,7 +2151,7 @@
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="37">
         <v>1</v>
       </c>
       <c r="E24" s="19"/>
@@ -2153,7 +2162,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="19"/>
       <c r="F25" s="20"/>
     </row>
@@ -2164,7 +2173,7 @@
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="37">
         <v>1</v>
       </c>
       <c r="E26" s="22"/>
@@ -2177,7 +2186,7 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="37">
         <v>1</v>
       </c>
       <c r="E27" s="19"/>
@@ -2190,7 +2199,7 @@
       <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="37">
         <v>1</v>
       </c>
       <c r="E28" s="19"/>
@@ -2203,7 +2212,7 @@
       <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="37">
         <v>1</v>
       </c>
       <c r="E29" s="19"/>
@@ -2216,7 +2225,7 @@
       <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="37">
         <v>1</v>
       </c>
       <c r="E30" s="19"/>
@@ -2229,7 +2238,7 @@
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="37">
         <v>1</v>
       </c>
       <c r="E31" s="19"/>
@@ -2242,7 +2251,7 @@
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="37">
         <v>1</v>
       </c>
       <c r="E32" s="19"/>
@@ -2255,7 +2264,7 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="37">
         <v>1</v>
       </c>
       <c r="E33" s="19"/>
@@ -2268,7 +2277,7 @@
       <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="37">
         <v>1</v>
       </c>
       <c r="E34" s="23"/>
@@ -2281,7 +2290,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="37">
         <v>1</v>
       </c>
       <c r="E35" s="22"/>
@@ -2294,7 +2303,7 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="37">
         <v>1</v>
       </c>
       <c r="E36" s="22"/>
@@ -2307,7 +2316,7 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="37">
         <v>1</v>
       </c>
       <c r="E37" s="22"/>
@@ -2318,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
     </row>
@@ -2329,7 +2338,7 @@
       <c r="C39" s="4">
         <v>0.5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="37">
         <v>0.5</v>
       </c>
       <c r="E39" s="23"/>
@@ -2340,7 +2349,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="23"/>
       <c r="F40" s="21"/>
     </row>
@@ -2349,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
     </row>
@@ -2360,7 +2369,7 @@
       <c r="C42" s="4">
         <v>0.1</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="37">
         <v>0.1</v>
       </c>
       <c r="E42" s="22"/>
@@ -2373,7 +2382,7 @@
       <c r="C43" s="4">
         <v>0.1</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="37">
         <v>0.1</v>
       </c>
       <c r="E43" s="22"/>
@@ -2386,7 +2395,7 @@
       <c r="C44" s="4">
         <v>0.1</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="37">
         <v>0.1</v>
       </c>
       <c r="E44" s="22"/>
@@ -2399,20 +2408,20 @@
       <c r="C45" s="4">
         <v>0.1</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="37">
         <v>0.1</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C46" s="4">
         <v>0.1</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="37">
         <v>0.1</v>
       </c>
       <c r="E46" s="22"/>
@@ -2421,7 +2430,7 @@
     <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="22"/>
       <c r="F47" s="21"/>
     </row>
@@ -2430,7 +2439,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
     </row>
@@ -2441,7 +2450,7 @@
       <c r="C49" s="4">
         <v>0.1</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="37">
         <v>0.1</v>
       </c>
       <c r="E49" s="22"/>
@@ -2454,7 +2463,7 @@
       <c r="C50" s="4">
         <v>0.1</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="37">
         <v>0.1</v>
       </c>
       <c r="E50" s="22"/>
@@ -2467,7 +2476,7 @@
       <c r="C51" s="4">
         <v>0.1</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="37">
         <v>0.1</v>
       </c>
       <c r="E51" s="22"/>
@@ -2480,7 +2489,7 @@
       <c r="C52" s="4">
         <v>0.1</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="37">
         <v>0.1</v>
       </c>
       <c r="E52" s="22"/>
@@ -2493,7 +2502,7 @@
       <c r="C53" s="4">
         <v>0.1</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="37">
         <v>0.1</v>
       </c>
       <c r="E53" s="22"/>
@@ -2506,7 +2515,7 @@
       <c r="C54" s="4">
         <v>0.1</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="37">
         <v>0.1</v>
       </c>
       <c r="E54" s="22"/>
@@ -2519,7 +2528,7 @@
       <c r="C55" s="4">
         <v>0.1</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="37">
         <v>0.1</v>
       </c>
       <c r="E55" s="22"/>
@@ -2532,7 +2541,7 @@
       <c r="C56" s="4">
         <v>0.1</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="37">
         <v>0.1</v>
       </c>
       <c r="E56" s="22"/>
@@ -2545,7 +2554,7 @@
       <c r="C57" s="4">
         <v>0.1</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="37">
         <v>0.1</v>
       </c>
       <c r="E57" s="22"/>
@@ -2558,7 +2567,7 @@
       <c r="C58" s="4">
         <v>0.1</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="37">
         <v>0.1</v>
       </c>
       <c r="E58" s="22"/>
@@ -2571,7 +2580,7 @@
       <c r="C59" s="4">
         <v>0.1</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="37">
         <v>0.1</v>
       </c>
       <c r="E59" s="22"/>
@@ -2580,7 +2589,7 @@
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B60" s="12"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="22"/>
       <c r="F60" s="21"/>
     </row>
@@ -2589,7 +2598,7 @@
         <v>28</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
     </row>
@@ -2600,7 +2609,7 @@
       <c r="C62" s="4">
         <v>0.1</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="37">
         <v>0.1</v>
       </c>
       <c r="E62" s="22"/>
@@ -2613,7 +2622,7 @@
       <c r="C63" s="4">
         <v>0.1</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="37">
         <v>0.1</v>
       </c>
       <c r="E63" s="22"/>
@@ -2626,7 +2635,7 @@
       <c r="C64" s="4">
         <v>0.1</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="37">
         <v>0.1</v>
       </c>
       <c r="E64" s="22"/>
@@ -2639,7 +2648,7 @@
       <c r="C65" s="4">
         <v>0.1</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="37">
         <v>0.1</v>
       </c>
       <c r="E65" s="22"/>
@@ -2652,7 +2661,7 @@
       <c r="C66" s="4">
         <v>0.1</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="37">
         <v>0.1</v>
       </c>
       <c r="E66" s="22"/>
@@ -2665,7 +2674,7 @@
       <c r="C67" s="4">
         <v>0.1</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="37">
         <v>0.1</v>
       </c>
       <c r="E67" s="22"/>
@@ -2678,7 +2687,7 @@
       <c r="C68" s="4">
         <v>0.1</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="37">
         <v>0.1</v>
       </c>
       <c r="E68" s="22"/>
@@ -2691,332 +2700,332 @@
       <c r="C69" s="4">
         <v>0.1</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="37">
         <v>0.1</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="21"/>
     </row>
     <row r="70" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="4">
         <v>0.1</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="37">
         <v>0.1</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="4">
         <v>0.1</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="37">
         <v>0.1</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="21"/>
     </row>
     <row r="72" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C72" s="4">
         <v>0.1</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="37">
         <v>0.1</v>
       </c>
       <c r="E72" s="22"/>
       <c r="F72" s="21"/>
     </row>
     <row r="73" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C73" s="4">
         <v>0.1</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="37">
         <v>0.1</v>
       </c>
       <c r="E73" s="22"/>
       <c r="F73" s="21"/>
     </row>
     <row r="74" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="4">
         <v>0.1</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="37">
         <v>0.1</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C75" s="4">
         <v>0.1</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="37">
         <v>0.1</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="31" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="4">
         <v>0.1</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="37">
         <v>0.1</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="31" t="s">
         <v>76</v>
       </c>
       <c r="C77" s="4">
         <v>0.1</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="37">
         <v>0.1</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B78" s="34" t="s">
+      <c r="B78" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="4">
         <v>0.1</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="37">
         <v>0.1</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="21"/>
     </row>
     <row r="79" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="4">
         <v>0.1</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="37">
         <v>0.1</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="21"/>
     </row>
     <row r="80" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C80" s="4">
         <v>0.1</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="37">
         <v>0.1</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="31" t="s">
         <v>79</v>
       </c>
       <c r="C81" s="4">
         <v>0.1</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="37">
         <v>0.1</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B82" s="34" t="s">
+      <c r="B82" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="4">
         <v>0.1</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="37">
         <v>0.1</v>
       </c>
       <c r="E82" s="22"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="4">
         <v>0.1</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="37">
         <v>0.1</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C84" s="4">
         <v>0.1</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="37">
         <v>0.1</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="31" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="4">
         <v>0.1</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="37">
         <v>0.1</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="31" t="s">
         <v>93</v>
       </c>
       <c r="C86" s="4">
         <v>0.1</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="37">
         <v>0.1</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="31" t="s">
         <v>94</v>
       </c>
       <c r="C87" s="4">
         <v>0.1</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="37">
         <v>0.1</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="31" t="s">
         <v>95</v>
       </c>
       <c r="C88" s="4">
         <v>0.1</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="37">
         <v>0.1</v>
       </c>
       <c r="E88" s="22"/>
       <c r="F88" s="21"/>
     </row>
     <row r="89" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B89" s="34" t="s">
+      <c r="B89" s="31" t="s">
         <v>96</v>
       </c>
       <c r="C89" s="4">
         <v>0.1</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="37">
         <v>0.1</v>
       </c>
       <c r="E89" s="22"/>
       <c r="F89" s="21"/>
     </row>
     <row r="90" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="31" t="s">
         <v>97</v>
       </c>
       <c r="C90" s="4">
         <v>0.1</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="37">
         <v>0.1</v>
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="31" t="s">
         <v>98</v>
       </c>
       <c r="C91" s="4">
         <v>0.1</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="37">
         <v>0.1</v>
       </c>
       <c r="E91" s="22"/>
       <c r="F91" s="21"/>
     </row>
     <row r="92" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="31" t="s">
         <v>99</v>
       </c>
       <c r="C92" s="4">
         <v>0.1</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="37">
         <v>0.1</v>
       </c>
       <c r="E92" s="22"/>
       <c r="F92" s="21"/>
     </row>
     <row r="93" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="31" t="s">
         <v>100</v>
       </c>
       <c r="C93" s="4">
         <v>0.1</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="37">
         <v>0.1</v>
       </c>
       <c r="E93" s="22"/>
       <c r="F93" s="21"/>
     </row>
     <row r="94" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="31" t="s">
         <v>101</v>
       </c>
       <c r="C94" s="4">
         <v>0.1</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="37">
         <v>0.1</v>
       </c>
       <c r="E94" s="22"/>
@@ -3025,7 +3034,7 @@
     <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95" s="12"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="22"/>
       <c r="F95" s="21"/>
     </row>
@@ -3034,14 +3043,14 @@
         <v>27</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97" s="12"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="22"/>
       <c r="F97" s="21"/>
     </row>
@@ -3050,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
     </row>
@@ -3059,7 +3068,7 @@
         <v>23</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="19"/>
       <c r="F99" s="20"/>
     </row>
@@ -3070,7 +3079,7 @@
       <c r="C100" s="4">
         <v>1</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="37">
         <v>1</v>
       </c>
       <c r="E100" s="22"/>
@@ -3083,46 +3092,46 @@
       <c r="C101" s="4">
         <v>1</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="37">
         <v>1</v>
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="21"/>
     </row>
     <row r="102" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="37">
         <v>1</v>
       </c>
       <c r="E102" s="22"/>
       <c r="F102" s="21"/>
     </row>
     <row r="103" spans="2:6" ht="33" x14ac:dyDescent="0.45">
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="37">
         <v>1</v>
       </c>
       <c r="E103" s="22"/>
       <c r="F103" s="21"/>
     </row>
     <row r="104" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="32" t="s">
         <v>69</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="37">
         <v>1</v>
       </c>
       <c r="E104" s="22"/>
@@ -3135,7 +3144,7 @@
       <c r="C105" s="4">
         <v>1</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="37">
         <v>1</v>
       </c>
       <c r="E105" s="22"/>
@@ -3148,7 +3157,7 @@
       <c r="C106" s="4">
         <v>1</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="37">
         <v>1</v>
       </c>
       <c r="E106" s="22"/>
@@ -3161,7 +3170,7 @@
       <c r="C107" s="4">
         <v>1</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="37">
         <v>1</v>
       </c>
       <c r="E107" s="22"/>
@@ -3174,7 +3183,7 @@
       <c r="C108" s="4">
         <v>1</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="37">
         <v>1</v>
       </c>
       <c r="E108" s="22"/>
@@ -3187,20 +3196,20 @@
       <c r="C109" s="4">
         <v>1</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="37">
         <v>1</v>
       </c>
       <c r="E109" s="22"/>
       <c r="F109" s="21"/>
     </row>
     <row r="110" spans="2:6" ht="29.25" x14ac:dyDescent="0.45">
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="32" t="s">
         <v>114</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="37">
         <v>1</v>
       </c>
       <c r="E110" s="22"/>
@@ -3213,7 +3222,7 @@
       <c r="C111" s="4">
         <v>1</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="37">
         <v>1</v>
       </c>
       <c r="E111" s="22"/>
@@ -3226,7 +3235,7 @@
       <c r="C112" s="4">
         <v>1</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="37">
         <v>1</v>
       </c>
       <c r="E112" s="19"/>
@@ -3237,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="36"/>
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
     </row>
@@ -3248,7 +3257,7 @@
       <c r="C114" s="4">
         <v>1</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="37">
         <v>1</v>
       </c>
       <c r="E114" s="23"/>
@@ -3261,7 +3270,7 @@
       <c r="C115" s="4">
         <v>1</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="37">
         <v>1</v>
       </c>
       <c r="E115" s="23"/>
@@ -3274,7 +3283,7 @@
       <c r="C116" s="4">
         <v>1</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="37">
         <v>1</v>
       </c>
       <c r="E116" s="22"/>
@@ -3283,7 +3292,7 @@
     <row r="117" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B117" s="13"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
+      <c r="D117" s="38"/>
       <c r="E117" s="24"/>
       <c r="F117" s="25"/>
     </row>
